--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.8915200446988</v>
+        <v>12.014481</v>
       </c>
       <c r="H2">
-        <v>11.8915200446988</v>
+        <v>36.043443</v>
       </c>
       <c r="I2">
-        <v>0.235291463338313</v>
+        <v>0.2338577750460931</v>
       </c>
       <c r="J2">
-        <v>0.235291463338313</v>
+        <v>0.2338577750460931</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.9311463188608</v>
+        <v>37.78741566666667</v>
       </c>
       <c r="N2">
-        <v>36.9311463188608</v>
+        <v>113.362247</v>
       </c>
       <c r="O2">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="P2">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="Q2">
-        <v>439.1674667244374</v>
+        <v>453.9961875662689</v>
       </c>
       <c r="R2">
-        <v>439.1674667244374</v>
+        <v>4085.96568809642</v>
       </c>
       <c r="S2">
-        <v>0.09178297833979214</v>
+        <v>0.09119147349112032</v>
       </c>
       <c r="T2">
-        <v>0.09178297833979214</v>
+        <v>0.09119147349112031</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.8915200446988</v>
+        <v>12.014481</v>
       </c>
       <c r="H3">
-        <v>11.8915200446988</v>
+        <v>36.043443</v>
       </c>
       <c r="I3">
-        <v>0.235291463338313</v>
+        <v>0.2338577750460931</v>
       </c>
       <c r="J3">
-        <v>0.235291463338313</v>
+        <v>0.2338577750460931</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.1686657667975</v>
+        <v>27.62253466666667</v>
       </c>
       <c r="N3">
-        <v>27.1686657667975</v>
+        <v>82.867604</v>
       </c>
       <c r="O3">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663402</v>
       </c>
       <c r="P3">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663403</v>
       </c>
       <c r="Q3">
-        <v>323.0767335535945</v>
+        <v>331.8704179245079</v>
       </c>
       <c r="R3">
-        <v>323.0767335535945</v>
+        <v>2986.833761320572</v>
       </c>
       <c r="S3">
-        <v>0.06752081400521084</v>
+        <v>0.06666080739771024</v>
       </c>
       <c r="T3">
-        <v>0.06752081400521084</v>
+        <v>0.06666080739771024</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.8915200446988</v>
+        <v>12.014481</v>
       </c>
       <c r="H4">
-        <v>11.8915200446988</v>
+        <v>36.043443</v>
       </c>
       <c r="I4">
-        <v>0.235291463338313</v>
+        <v>0.2338577750460931</v>
       </c>
       <c r="J4">
-        <v>0.235291463338313</v>
+        <v>0.2338577750460931</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.679772234104179</v>
+        <v>9.205342333333334</v>
       </c>
       <c r="N4">
-        <v>8.679772234104179</v>
+        <v>27.616027</v>
       </c>
       <c r="O4">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000923</v>
       </c>
       <c r="P4">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000925</v>
       </c>
       <c r="Q4">
-        <v>103.2156855052699</v>
+        <v>110.597410562329</v>
       </c>
       <c r="R4">
-        <v>103.2156855052699</v>
+        <v>995.376695060961</v>
       </c>
       <c r="S4">
-        <v>0.02157136797430682</v>
+        <v>0.02221503420005924</v>
       </c>
       <c r="T4">
-        <v>0.02157136797430682</v>
+        <v>0.02221503420005924</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.8915200446988</v>
+        <v>12.014481</v>
       </c>
       <c r="H5">
-        <v>11.8915200446988</v>
+        <v>36.043443</v>
       </c>
       <c r="I5">
-        <v>0.235291463338313</v>
+        <v>0.2338577750460931</v>
       </c>
       <c r="J5">
-        <v>0.235291463338313</v>
+        <v>0.2338577750460931</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.2661705617588</v>
+        <v>17.41884833333333</v>
       </c>
       <c r="N5">
-        <v>17.2661705617588</v>
+        <v>52.256545</v>
       </c>
       <c r="O5">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334833</v>
       </c>
       <c r="P5">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334834</v>
       </c>
       <c r="Q5">
-        <v>205.3210133303431</v>
+        <v>209.278422342715</v>
       </c>
       <c r="R5">
-        <v>205.3210133303431</v>
+        <v>1883.505801084435</v>
       </c>
       <c r="S5">
-        <v>0.04291067883456775</v>
+        <v>0.0420364933142604</v>
       </c>
       <c r="T5">
-        <v>0.04291067883456775</v>
+        <v>0.0420364933142604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.8915200446988</v>
+        <v>12.014481</v>
       </c>
       <c r="H6">
-        <v>11.8915200446988</v>
+        <v>36.043443</v>
       </c>
       <c r="I6">
-        <v>0.235291463338313</v>
+        <v>0.2338577750460931</v>
       </c>
       <c r="J6">
-        <v>0.235291463338313</v>
+        <v>0.2338577750460931</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.62957182182645</v>
+        <v>4.870543333333333</v>
       </c>
       <c r="N6">
-        <v>4.62957182182645</v>
+        <v>14.61163</v>
       </c>
       <c r="O6">
-        <v>0.04889945440941106</v>
+        <v>0.05026117536877379</v>
       </c>
       <c r="P6">
-        <v>0.04889945440941106</v>
+        <v>0.0502611753687738</v>
       </c>
       <c r="Q6">
-        <v>55.05264611762197</v>
+        <v>58.51705033800999</v>
       </c>
       <c r="R6">
-        <v>55.05264611762197</v>
+        <v>526.65345304209</v>
       </c>
       <c r="S6">
-        <v>0.01150562418443545</v>
+        <v>0.01175396664294294</v>
       </c>
       <c r="T6">
-        <v>0.01150562418443545</v>
+        <v>0.01175396664294294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.1457994552401</v>
+        <v>11.16283</v>
       </c>
       <c r="H7">
-        <v>11.1457994552401</v>
+        <v>33.48849</v>
       </c>
       <c r="I7">
-        <v>0.2205362690422342</v>
+        <v>0.217280678792349</v>
       </c>
       <c r="J7">
-        <v>0.2205362690422342</v>
+        <v>0.217280678792349</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.9311463188608</v>
+        <v>37.78741566666667</v>
       </c>
       <c r="N7">
-        <v>36.9311463188608</v>
+        <v>113.362247</v>
       </c>
       <c r="O7">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="P7">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="Q7">
-        <v>411.6271505221511</v>
+        <v>421.8144972263366</v>
       </c>
       <c r="R7">
-        <v>411.6271505221511</v>
+        <v>3796.33047503703</v>
       </c>
       <c r="S7">
-        <v>0.08602724177688426</v>
+        <v>0.08472733162846423</v>
       </c>
       <c r="T7">
-        <v>0.08602724177688426</v>
+        <v>0.08472733162846424</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.1457994552401</v>
+        <v>11.16283</v>
       </c>
       <c r="H8">
-        <v>11.1457994552401</v>
+        <v>33.48849</v>
       </c>
       <c r="I8">
-        <v>0.2205362690422342</v>
+        <v>0.217280678792349</v>
       </c>
       <c r="J8">
-        <v>0.2205362690422342</v>
+        <v>0.217280678792349</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.1686657667975</v>
+        <v>27.62253466666667</v>
       </c>
       <c r="N8">
-        <v>27.1686657667975</v>
+        <v>82.867604</v>
       </c>
       <c r="O8">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663402</v>
       </c>
       <c r="P8">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663403</v>
       </c>
       <c r="Q8">
-        <v>302.8165001031719</v>
+        <v>308.3456586531067</v>
       </c>
       <c r="R8">
-        <v>302.8165001031719</v>
+        <v>2775.11092787796</v>
       </c>
       <c r="S8">
-        <v>0.06328656463831484</v>
+        <v>0.06193553101822557</v>
       </c>
       <c r="T8">
-        <v>0.06328656463831484</v>
+        <v>0.06193553101822558</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.1457994552401</v>
+        <v>11.16283</v>
       </c>
       <c r="H9">
-        <v>11.1457994552401</v>
+        <v>33.48849</v>
       </c>
       <c r="I9">
-        <v>0.2205362690422342</v>
+        <v>0.217280678792349</v>
       </c>
       <c r="J9">
-        <v>0.2205362690422342</v>
+        <v>0.217280678792349</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.679772234104179</v>
+        <v>9.205342333333334</v>
       </c>
       <c r="N9">
-        <v>8.679772234104179</v>
+        <v>27.616027</v>
       </c>
       <c r="O9">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000923</v>
       </c>
       <c r="P9">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000925</v>
       </c>
       <c r="Q9">
-        <v>96.74300063848651</v>
+        <v>102.7576715588033</v>
       </c>
       <c r="R9">
-        <v>96.74300063848651</v>
+        <v>924.8190440292301</v>
       </c>
       <c r="S9">
-        <v>0.02021862138003086</v>
+        <v>0.02064031315372235</v>
       </c>
       <c r="T9">
-        <v>0.02021862138003086</v>
+        <v>0.02064031315372235</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.1457994552401</v>
+        <v>11.16283</v>
       </c>
       <c r="H10">
-        <v>11.1457994552401</v>
+        <v>33.48849</v>
       </c>
       <c r="I10">
-        <v>0.2205362690422342</v>
+        <v>0.217280678792349</v>
       </c>
       <c r="J10">
-        <v>0.2205362690422342</v>
+        <v>0.217280678792349</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.2661705617588</v>
+        <v>17.41884833333333</v>
       </c>
       <c r="N10">
-        <v>17.2661705617588</v>
+        <v>52.256545</v>
       </c>
       <c r="O10">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334833</v>
       </c>
       <c r="P10">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334834</v>
       </c>
       <c r="Q10">
-        <v>192.4452744413339</v>
+        <v>194.4436427407833</v>
       </c>
       <c r="R10">
-        <v>192.4452744413339</v>
+        <v>1749.99278466705</v>
       </c>
       <c r="S10">
-        <v>0.04021973801335187</v>
+        <v>0.03905672069090836</v>
       </c>
       <c r="T10">
-        <v>0.04021973801335187</v>
+        <v>0.03905672069090836</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.1457994552401</v>
+        <v>11.16283</v>
       </c>
       <c r="H11">
-        <v>11.1457994552401</v>
+        <v>33.48849</v>
       </c>
       <c r="I11">
-        <v>0.2205362690422342</v>
+        <v>0.217280678792349</v>
       </c>
       <c r="J11">
-        <v>0.2205362690422342</v>
+        <v>0.217280678792349</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.62957182182645</v>
+        <v>4.870543333333333</v>
       </c>
       <c r="N11">
-        <v>4.62957182182645</v>
+        <v>14.61163</v>
       </c>
       <c r="O11">
-        <v>0.04889945440941106</v>
+        <v>0.05026117536877379</v>
       </c>
       <c r="P11">
-        <v>0.04889945440941106</v>
+        <v>0.0502611753687738</v>
       </c>
       <c r="Q11">
-        <v>51.60027908970816</v>
+        <v>54.36904723763332</v>
       </c>
       <c r="R11">
-        <v>51.60027908970816</v>
+        <v>489.3214251387</v>
       </c>
       <c r="S11">
-        <v>0.01078410323365234</v>
+        <v>0.01092078230102846</v>
       </c>
       <c r="T11">
-        <v>0.01078410323365234</v>
+        <v>0.01092078230102846</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.0272859918853</v>
+        <v>13.04190333333333</v>
       </c>
       <c r="H12">
-        <v>13.0272859918853</v>
+        <v>39.12571</v>
       </c>
       <c r="I12">
-        <v>0.2577642868897874</v>
+        <v>0.2538562003551846</v>
       </c>
       <c r="J12">
-        <v>0.2577642868897874</v>
+        <v>0.2538562003551846</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.9311463188608</v>
+        <v>37.78741566666667</v>
       </c>
       <c r="N12">
-        <v>36.9311463188608</v>
+        <v>113.362247</v>
       </c>
       <c r="O12">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="P12">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="Q12">
-        <v>481.1126051039616</v>
+        <v>492.8198223411522</v>
       </c>
       <c r="R12">
-        <v>481.1126051039616</v>
+        <v>4435.378401070369</v>
       </c>
       <c r="S12">
-        <v>0.1005492236085089</v>
+        <v>0.09898974263602567</v>
       </c>
       <c r="T12">
-        <v>0.1005492236085089</v>
+        <v>0.09898974263602567</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.0272859918853</v>
+        <v>13.04190333333333</v>
       </c>
       <c r="H13">
-        <v>13.0272859918853</v>
+        <v>39.12571</v>
       </c>
       <c r="I13">
-        <v>0.2577642868897874</v>
+        <v>0.2538562003551846</v>
       </c>
       <c r="J13">
-        <v>0.2577642868897874</v>
+        <v>0.2538562003551846</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.1686657667975</v>
+        <v>27.62253466666667</v>
       </c>
       <c r="N13">
-        <v>27.1686657667975</v>
+        <v>82.867604</v>
       </c>
       <c r="O13">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663402</v>
       </c>
       <c r="P13">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663403</v>
       </c>
       <c r="Q13">
-        <v>353.9339789620147</v>
+        <v>360.2504269443155</v>
       </c>
       <c r="R13">
-        <v>353.9339789620147</v>
+        <v>3242.25384249884</v>
       </c>
       <c r="S13">
-        <v>0.07396976594618823</v>
+        <v>0.0723613284837596</v>
       </c>
       <c r="T13">
-        <v>0.07396976594618823</v>
+        <v>0.07236132848375959</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.0272859918853</v>
+        <v>13.04190333333333</v>
       </c>
       <c r="H14">
-        <v>13.0272859918853</v>
+        <v>39.12571</v>
       </c>
       <c r="I14">
-        <v>0.2577642868897874</v>
+        <v>0.2538562003551846</v>
       </c>
       <c r="J14">
-        <v>0.2577642868897874</v>
+        <v>0.2538562003551846</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.679772234104179</v>
+        <v>9.205342333333334</v>
       </c>
       <c r="N14">
-        <v>8.679772234104179</v>
+        <v>27.616027</v>
       </c>
       <c r="O14">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000923</v>
       </c>
       <c r="P14">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000925</v>
       </c>
       <c r="Q14">
-        <v>113.0738752381004</v>
+        <v>120.0551848615744</v>
       </c>
       <c r="R14">
-        <v>113.0738752381004</v>
+        <v>1080.49666375417</v>
       </c>
       <c r="S14">
-        <v>0.02363166178765906</v>
+        <v>0.02411476022841658</v>
       </c>
       <c r="T14">
-        <v>0.02363166178765906</v>
+        <v>0.02411476022841658</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.0272859918853</v>
+        <v>13.04190333333333</v>
       </c>
       <c r="H15">
-        <v>13.0272859918853</v>
+        <v>39.12571</v>
       </c>
       <c r="I15">
-        <v>0.2577642868897874</v>
+        <v>0.2538562003551846</v>
       </c>
       <c r="J15">
-        <v>0.2577642868897874</v>
+        <v>0.2538562003551846</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.2661705617588</v>
+        <v>17.41884833333333</v>
       </c>
       <c r="N15">
-        <v>17.2661705617588</v>
+        <v>52.256545</v>
       </c>
       <c r="O15">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334833</v>
       </c>
       <c r="P15">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334834</v>
       </c>
       <c r="Q15">
-        <v>224.9313418927027</v>
+        <v>227.1749361413277</v>
       </c>
       <c r="R15">
-        <v>224.9313418927027</v>
+        <v>2044.57442527195</v>
       </c>
       <c r="S15">
-        <v>0.04700910255228961</v>
+        <v>0.04563125800248026</v>
       </c>
       <c r="T15">
-        <v>0.04700910255228961</v>
+        <v>0.04563125800248026</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.0272859918853</v>
+        <v>13.04190333333333</v>
       </c>
       <c r="H16">
-        <v>13.0272859918853</v>
+        <v>39.12571</v>
       </c>
       <c r="I16">
-        <v>0.2577642868897874</v>
+        <v>0.2538562003551846</v>
       </c>
       <c r="J16">
-        <v>0.2577642868897874</v>
+        <v>0.2538562003551846</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.62957182182645</v>
+        <v>4.870543333333333</v>
       </c>
       <c r="N16">
-        <v>4.62957182182645</v>
+        <v>14.61163</v>
       </c>
       <c r="O16">
-        <v>0.04889945440941106</v>
+        <v>0.05026117536877379</v>
       </c>
       <c r="P16">
-        <v>0.04889945440941106</v>
+        <v>0.0502611753687738</v>
       </c>
       <c r="Q16">
-        <v>60.31075614290662</v>
+        <v>63.52115533414443</v>
       </c>
       <c r="R16">
-        <v>60.31075614290662</v>
+        <v>571.6903980073</v>
       </c>
       <c r="S16">
-        <v>0.01260453299514151</v>
+        <v>0.01275911100450251</v>
       </c>
       <c r="T16">
-        <v>0.01260453299514151</v>
+        <v>0.01275911100450251</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.2308718823482</v>
+        <v>11.62036266666667</v>
       </c>
       <c r="H17">
-        <v>11.2308718823482</v>
+        <v>34.861088</v>
       </c>
       <c r="I17">
-        <v>0.2222195539199257</v>
+        <v>0.226186396104447</v>
       </c>
       <c r="J17">
-        <v>0.2222195539199257</v>
+        <v>0.2261863961044469</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.9311463188608</v>
+        <v>37.78741566666667</v>
       </c>
       <c r="N17">
-        <v>36.9311463188608</v>
+        <v>113.362247</v>
       </c>
       <c r="O17">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="P17">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="Q17">
-        <v>414.768972775381</v>
+        <v>439.1034742827484</v>
       </c>
       <c r="R17">
-        <v>414.768972775381</v>
+        <v>3951.931268544735</v>
       </c>
       <c r="S17">
-        <v>0.08668386100682511</v>
+        <v>0.08820006407888427</v>
       </c>
       <c r="T17">
-        <v>0.08668386100682511</v>
+        <v>0.08820006407888425</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.2308718823482</v>
+        <v>11.62036266666667</v>
       </c>
       <c r="H18">
-        <v>11.2308718823482</v>
+        <v>34.861088</v>
       </c>
       <c r="I18">
-        <v>0.2222195539199257</v>
+        <v>0.226186396104447</v>
       </c>
       <c r="J18">
-        <v>0.2222195539199257</v>
+        <v>0.2261863961044469</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>27.1686657667975</v>
+        <v>27.62253466666667</v>
       </c>
       <c r="N18">
-        <v>27.1686657667975</v>
+        <v>82.867604</v>
       </c>
       <c r="O18">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663402</v>
       </c>
       <c r="P18">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663403</v>
       </c>
       <c r="Q18">
-        <v>305.1278044412421</v>
+        <v>320.9838705992391</v>
       </c>
       <c r="R18">
-        <v>305.1278044412421</v>
+        <v>2888.854835393151</v>
       </c>
       <c r="S18">
-        <v>0.06376961133933762</v>
+        <v>0.06447409235689908</v>
       </c>
       <c r="T18">
-        <v>0.06376961133933762</v>
+        <v>0.06447409235689908</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.2308718823482</v>
+        <v>11.62036266666667</v>
       </c>
       <c r="H19">
-        <v>11.2308718823482</v>
+        <v>34.861088</v>
       </c>
       <c r="I19">
-        <v>0.2222195539199257</v>
+        <v>0.226186396104447</v>
       </c>
       <c r="J19">
-        <v>0.2222195539199257</v>
+        <v>0.2261863961044469</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.679772234104179</v>
+        <v>9.205342333333334</v>
       </c>
       <c r="N19">
-        <v>8.679772234104179</v>
+        <v>27.616027</v>
       </c>
       <c r="O19">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000923</v>
       </c>
       <c r="P19">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000925</v>
       </c>
       <c r="Q19">
-        <v>97.48140992918725</v>
+        <v>106.9694163841529</v>
       </c>
       <c r="R19">
-        <v>97.48140992918725</v>
+        <v>962.724747457376</v>
       </c>
       <c r="S19">
-        <v>0.0203729438402982</v>
+        <v>0.02148630091113312</v>
       </c>
       <c r="T19">
-        <v>0.0203729438402982</v>
+        <v>0.02148630091113312</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.2308718823482</v>
+        <v>11.62036266666667</v>
       </c>
       <c r="H20">
-        <v>11.2308718823482</v>
+        <v>34.861088</v>
       </c>
       <c r="I20">
-        <v>0.2222195539199257</v>
+        <v>0.226186396104447</v>
       </c>
       <c r="J20">
-        <v>0.2222195539199257</v>
+        <v>0.2261863961044469</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.2661705617588</v>
+        <v>17.41884833333333</v>
       </c>
       <c r="N20">
-        <v>17.2661705617588</v>
+        <v>52.256545</v>
       </c>
       <c r="O20">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334833</v>
       </c>
       <c r="P20">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334834</v>
       </c>
       <c r="Q20">
-        <v>193.9141494778851</v>
+        <v>202.4133348689955</v>
       </c>
       <c r="R20">
-        <v>193.9141494778851</v>
+        <v>1821.72001382096</v>
       </c>
       <c r="S20">
-        <v>0.0405267227876777</v>
+        <v>0.04065754463689396</v>
       </c>
       <c r="T20">
-        <v>0.0405267227876777</v>
+        <v>0.04065754463689396</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.2308718823482</v>
+        <v>11.62036266666667</v>
       </c>
       <c r="H21">
-        <v>11.2308718823482</v>
+        <v>34.861088</v>
       </c>
       <c r="I21">
-        <v>0.2222195539199257</v>
+        <v>0.226186396104447</v>
       </c>
       <c r="J21">
-        <v>0.2222195539199257</v>
+        <v>0.2261863961044469</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.62957182182645</v>
+        <v>4.870543333333333</v>
       </c>
       <c r="N21">
-        <v>4.62957182182645</v>
+        <v>14.61163</v>
       </c>
       <c r="O21">
-        <v>0.04889945440941106</v>
+        <v>0.05026117536877379</v>
       </c>
       <c r="P21">
-        <v>0.04889945440941106</v>
+        <v>0.0502611753687738</v>
       </c>
       <c r="Q21">
-        <v>51.99412800106221</v>
+        <v>56.59747991704888</v>
       </c>
       <c r="R21">
-        <v>51.99412800106221</v>
+        <v>509.3773192534399</v>
       </c>
       <c r="S21">
-        <v>0.01086641494578707</v>
+        <v>0.01136839412063654</v>
       </c>
       <c r="T21">
-        <v>0.01086641494578707</v>
+        <v>0.01136839412063654</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.24405294274616</v>
+        <v>3.535584666666667</v>
       </c>
       <c r="H22">
-        <v>3.24405294274616</v>
+        <v>10.606754</v>
       </c>
       <c r="I22">
-        <v>0.06418842680973996</v>
+        <v>0.06881894970192634</v>
       </c>
       <c r="J22">
-        <v>0.06418842680973996</v>
+        <v>0.06881894970192633</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>36.9311463188608</v>
+        <v>37.78741566666667</v>
       </c>
       <c r="N22">
-        <v>36.9311463188608</v>
+        <v>113.362247</v>
       </c>
       <c r="O22">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="P22">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="Q22">
-        <v>119.8065938946894</v>
+        <v>133.6006074240265</v>
       </c>
       <c r="R22">
-        <v>119.8065938946894</v>
+        <v>1202.405466816238</v>
       </c>
       <c r="S22">
-        <v>0.02503875365453765</v>
+        <v>0.02683554748689892</v>
       </c>
       <c r="T22">
-        <v>0.02503875365453765</v>
+        <v>0.02683554748689892</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.24405294274616</v>
+        <v>3.535584666666667</v>
       </c>
       <c r="H23">
-        <v>3.24405294274616</v>
+        <v>10.606754</v>
       </c>
       <c r="I23">
-        <v>0.06418842680973996</v>
+        <v>0.06881894970192634</v>
       </c>
       <c r="J23">
-        <v>0.06418842680973996</v>
+        <v>0.06881894970192633</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>27.1686657667975</v>
+        <v>27.62253466666667</v>
       </c>
       <c r="N23">
-        <v>27.1686657667975</v>
+        <v>82.867604</v>
       </c>
       <c r="O23">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663402</v>
       </c>
       <c r="P23">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663403</v>
       </c>
       <c r="Q23">
-        <v>88.13659013126629</v>
+        <v>97.66181002193511</v>
       </c>
       <c r="R23">
-        <v>88.13659013126629</v>
+        <v>878.956290197416</v>
       </c>
       <c r="S23">
-        <v>0.01841994081049951</v>
+        <v>0.01961673820974574</v>
       </c>
       <c r="T23">
-        <v>0.01841994081049951</v>
+        <v>0.01961673820974574</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.24405294274616</v>
+        <v>3.535584666666667</v>
       </c>
       <c r="H24">
-        <v>3.24405294274616</v>
+        <v>10.606754</v>
       </c>
       <c r="I24">
-        <v>0.06418842680973996</v>
+        <v>0.06881894970192634</v>
       </c>
       <c r="J24">
-        <v>0.06418842680973996</v>
+        <v>0.06881894970192633</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.679772234104179</v>
+        <v>9.205342333333334</v>
       </c>
       <c r="N24">
-        <v>8.679772234104179</v>
+        <v>27.616027</v>
       </c>
       <c r="O24">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000923</v>
       </c>
       <c r="P24">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000925</v>
       </c>
       <c r="Q24">
-        <v>28.15764065841208</v>
+        <v>32.54626720515089</v>
       </c>
       <c r="R24">
-        <v>28.15764065841208</v>
+        <v>292.916404846358</v>
       </c>
       <c r="S24">
-        <v>0.005884753126014919</v>
+        <v>0.006537372216677946</v>
       </c>
       <c r="T24">
-        <v>0.005884753126014919</v>
+        <v>0.006537372216677946</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.24405294274616</v>
+        <v>3.535584666666667</v>
       </c>
       <c r="H25">
-        <v>3.24405294274616</v>
+        <v>10.606754</v>
       </c>
       <c r="I25">
-        <v>0.06418842680973996</v>
+        <v>0.06881894970192634</v>
       </c>
       <c r="J25">
-        <v>0.06418842680973996</v>
+        <v>0.06881894970192633</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.2661705617588</v>
+        <v>17.41884833333333</v>
       </c>
       <c r="N25">
-        <v>17.2661705617588</v>
+        <v>52.256545</v>
       </c>
       <c r="O25">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334833</v>
       </c>
       <c r="P25">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334834</v>
       </c>
       <c r="Q25">
-        <v>56.01237142083075</v>
+        <v>61.58581307832556</v>
       </c>
       <c r="R25">
-        <v>56.01237142083075</v>
+        <v>554.2723177049301</v>
       </c>
       <c r="S25">
-        <v>0.01170620016829318</v>
+        <v>0.01237037048894038</v>
       </c>
       <c r="T25">
-        <v>0.01170620016829318</v>
+        <v>0.01237037048894038</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.24405294274616</v>
+        <v>3.535584666666667</v>
       </c>
       <c r="H26">
-        <v>3.24405294274616</v>
+        <v>10.606754</v>
       </c>
       <c r="I26">
-        <v>0.06418842680973996</v>
+        <v>0.06881894970192634</v>
       </c>
       <c r="J26">
-        <v>0.06418842680973996</v>
+        <v>0.06881894970192633</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.62957182182645</v>
+        <v>4.870543333333333</v>
       </c>
       <c r="N26">
-        <v>4.62957182182645</v>
+        <v>14.61163</v>
       </c>
       <c r="O26">
-        <v>0.04889945440941106</v>
+        <v>0.05026117536877379</v>
       </c>
       <c r="P26">
-        <v>0.04889945440941106</v>
+        <v>0.0502611753687738</v>
       </c>
       <c r="Q26">
-        <v>15.0185760922508</v>
+        <v>17.22021832766889</v>
       </c>
       <c r="R26">
-        <v>15.0185760922508</v>
+        <v>154.98196494902</v>
       </c>
       <c r="S26">
-        <v>0.003138779050394698</v>
+        <v>0.003458921299663343</v>
       </c>
       <c r="T26">
-        <v>0.003138779050394698</v>
+        <v>0.003458921299663343</v>
       </c>
     </row>
   </sheetData>
